--- a/kawa/config_tlm.xlsx
+++ b/kawa/config_tlm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/kawa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6866F75F-D6BD-8148-8233-6FA1D600C2E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D39AAC-BA65-2649-9D27-3A3637A4D9C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12640" yWindow="460" windowWidth="20160" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="2600" yWindow="680" windowWidth="25580" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="108">
   <si>
     <t>No.</t>
   </si>
@@ -57,15 +57,6 @@
     <t>w assgn</t>
   </si>
   <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Frame counter</t>
-  </si>
-  <si>
     <t>a_x</t>
   </si>
   <si>
@@ -93,42 +84,6 @@
     <t>B_z</t>
   </si>
   <si>
-    <t>p11</t>
-  </si>
-  <si>
-    <t>p12</t>
-  </si>
-  <si>
-    <t>p13</t>
-  </si>
-  <si>
-    <t>p14</t>
-  </si>
-  <si>
-    <t>p15</t>
-  </si>
-  <si>
-    <t>p16</t>
-  </si>
-  <si>
-    <t>T11</t>
-  </si>
-  <si>
-    <t>T12</t>
-  </si>
-  <si>
-    <t>T13</t>
-  </si>
-  <si>
-    <t>T14</t>
-  </si>
-  <si>
-    <t>T15</t>
-  </si>
-  <si>
-    <t>T16</t>
-  </si>
-  <si>
     <t>sub com mod</t>
   </si>
   <si>
@@ -183,9 +138,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>Ptf</t>
   </si>
   <si>
@@ -255,39 +207,9 @@
     <t>V5</t>
   </si>
   <si>
-    <t>V24cnt</t>
-  </si>
-  <si>
-    <t>V24val</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
-    <t>RelStat</t>
-  </si>
-  <si>
-    <t>Chassis Temp</t>
-  </si>
-  <si>
-    <t>CPU Load</t>
-  </si>
-  <si>
-    <t>RAM Load</t>
-  </si>
-  <si>
-    <t>Loop counter</t>
-  </si>
-  <si>
-    <t>Fctr</t>
-  </si>
-  <si>
-    <t>Lctr</t>
-  </si>
-  <si>
-    <t>SSD Free Space</t>
-  </si>
-  <si>
     <t>binary</t>
   </si>
   <si>
@@ -315,12 +237,6 @@
     <t>velocity</t>
   </si>
   <si>
-    <t>UTCTime</t>
-  </si>
-  <si>
-    <t>Err Code</t>
-  </si>
-  <si>
     <t>ec</t>
   </si>
   <si>
@@ -337,6 +253,111 @@
   </si>
   <si>
     <t>omg ci</t>
+  </si>
+  <si>
+    <t>GSE Day</t>
+  </si>
+  <si>
+    <t>GSE Time</t>
+  </si>
+  <si>
+    <t>TLM frame counter</t>
+  </si>
+  <si>
+    <t>gse day</t>
+  </si>
+  <si>
+    <t>gse time</t>
+  </si>
+  <si>
+    <t>Relay 1-1</t>
+  </si>
+  <si>
+    <t>Relay 1-2</t>
+  </si>
+  <si>
+    <t>Relay 1-3</t>
+  </si>
+  <si>
+    <t>Relay 1-4</t>
+  </si>
+  <si>
+    <t>Relay 1-5</t>
+  </si>
+  <si>
+    <t>Relay 1-6</t>
+  </si>
+  <si>
+    <t>Relay 1-7</t>
+  </si>
+  <si>
+    <t>Relay 1-8</t>
+  </si>
+  <si>
+    <t>Relay 2-1</t>
+  </si>
+  <si>
+    <t>Relay 2-2</t>
+  </si>
+  <si>
+    <t>Relay 2-3</t>
+  </si>
+  <si>
+    <t>Relay 2-4</t>
+  </si>
+  <si>
+    <t>Relay 2-5</t>
+  </si>
+  <si>
+    <t>Relay 2-6</t>
+  </si>
+  <si>
+    <t>Relay 2-7</t>
+  </si>
+  <si>
+    <t>Relay 2-8</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>DES loop counter</t>
+  </si>
+  <si>
+    <t>V24 control</t>
+  </si>
+  <si>
+    <t>V24 valve</t>
+  </si>
+  <si>
+    <t>des time</t>
+  </si>
+  <si>
+    <t>DES time</t>
+  </si>
+  <si>
+    <t>Chassis temperature</t>
+  </si>
+  <si>
+    <t>CPU load</t>
+  </si>
+  <si>
+    <t>RAM load</t>
+  </si>
+  <si>
+    <t>SSD free space</t>
+  </si>
+  <si>
+    <t>Error Code</t>
+  </si>
+  <si>
+    <t>rel</t>
+  </si>
+  <si>
+    <t>az</t>
+  </si>
+  <si>
+    <t>cjc</t>
   </si>
 </sst>
 </file>
@@ -346,10 +367,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -375,9 +402,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,10 +720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE05D0F0-18B2-A045-A8BA-808A6B30C776}">
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -711,19 +740,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -735,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -743,15 +772,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2">
@@ -781,15 +810,15 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
+        <v>77</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3">
@@ -819,19 +848,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
+        <v>94</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -857,19 +886,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -895,19 +924,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -933,19 +962,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -971,19 +1000,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1009,19 +1038,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1047,19 +1076,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1085,19 +1114,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="2">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1123,19 +1152,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1161,19 +1190,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1199,19 +1228,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="2">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1237,19 +1266,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1275,19 +1304,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1313,19 +1342,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E17" s="1">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1351,19 +1380,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E18" s="1">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1389,19 +1418,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E19" s="1">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1427,19 +1456,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E20" s="1">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1465,19 +1494,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E21" s="1">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1503,19 +1532,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E22" s="1">
+        <v>33</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1541,19 +1570,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E23" s="1">
+        <v>33</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1579,19 +1608,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
+        <v>33</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1617,19 +1646,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
+        <v>106</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1655,19 +1684,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
+        <v>107</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1693,19 +1722,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
+        <v>29</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1731,19 +1760,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
+        <v>29</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-1</v>
+        <v>37</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1769,19 +1798,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
+        <v>29</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>39</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1807,19 +1836,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
+        <v>30</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1845,19 +1874,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
+        <v>30</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1883,19 +1912,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
+        <v>30</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1921,19 +1950,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1">
+        <v>31</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1959,19 +1988,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1">
+        <v>31</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1997,19 +2026,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1">
+        <v>31</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2035,19 +2064,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1">
+        <v>65</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2073,19 +2102,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1">
+        <v>65</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2111,19 +2140,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1">
+        <v>65</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2149,19 +2178,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1">
+        <v>66</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2187,19 +2216,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1">
+        <v>66</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>-1</v>
+        <v>57</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -2225,19 +2254,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1">
+        <v>66</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>-1</v>
+        <v>58</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2263,19 +2292,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1">
+        <v>98</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>-1</v>
+        <v>59</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -2301,19 +2330,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="1">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1">
+        <v>94</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2339,19 +2368,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="1">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1">
+        <v>57</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2377,19 +2406,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1">
+        <v>57</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2415,19 +2444,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1">
+        <v>57</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2453,19 +2482,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1">
+        <v>105</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2491,19 +2520,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1">
+        <v>105</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2529,19 +2558,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1">
+        <v>105</v>
+      </c>
+      <c r="D49" s="2">
+        <v>4</v>
+      </c>
+      <c r="E49" s="2">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2567,19 +2596,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1">
+        <v>105</v>
+      </c>
+      <c r="D50" s="2">
+        <v>8</v>
+      </c>
+      <c r="E50" s="2">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2605,15 +2634,15 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1</v>
-      </c>
-      <c r="E51" s="1">
+        <v>105</v>
+      </c>
+      <c r="D51" s="2">
+        <v>16</v>
+      </c>
+      <c r="E51" s="2">
         <v>0</v>
       </c>
       <c r="F51">
@@ -2643,19 +2672,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1">
+        <v>105</v>
+      </c>
+      <c r="D52" s="2">
+        <v>32</v>
+      </c>
+      <c r="E52" s="2">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2681,19 +2710,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1</v>
-      </c>
-      <c r="E53" s="1">
+        <v>105</v>
+      </c>
+      <c r="D53" s="2">
+        <v>64</v>
+      </c>
+      <c r="E53" s="2">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2719,19 +2748,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1">
+        <v>105</v>
+      </c>
+      <c r="D54" s="2">
+        <v>128</v>
+      </c>
+      <c r="E54" s="2">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2757,19 +2786,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2795,19 +2824,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C56" t="s">
-        <v>91</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="D56" s="2">
+        <v>2</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2833,19 +2862,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="D57" s="2">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2871,19 +2900,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C58" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1">
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="D58" s="2">
+        <v>8</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2909,19 +2938,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C59" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
-      <c r="E59" s="1">
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="D59" s="2">
+        <v>16</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2947,19 +2976,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
-        <v>92</v>
-      </c>
-      <c r="D60" s="1">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="D60" s="2">
+        <v>32</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -2985,19 +3014,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C61" t="s">
-        <v>92</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1</v>
-      </c>
-      <c r="E61" s="1">
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="D61" s="2">
+        <v>64</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -3026,16 +3055,16 @@
         <v>93</v>
       </c>
       <c r="C62" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
-      <c r="E62" s="1">
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="D62" s="2">
+        <v>128</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -3061,19 +3090,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C63" t="s">
-        <v>82</v>
-      </c>
-      <c r="D63" s="1">
-        <v>1</v>
-      </c>
-      <c r="E63" s="1">
+        <v>58</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -3099,100 +3128,170 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C64" t="s">
-        <v>95</v>
-      </c>
-      <c r="D64" s="1">
-        <v>1</v>
-      </c>
-      <c r="E64" s="1">
+        <v>58</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2">
         <v>0</v>
       </c>
       <c r="F64">
+        <v>30</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>-1</v>
+      </c>
+      <c r="K64">
+        <v>-1</v>
+      </c>
+      <c r="L64">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>31</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>-1</v>
+      </c>
+      <c r="K65">
+        <v>-1</v>
+      </c>
+      <c r="L65">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>34</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>-1</v>
+      </c>
+      <c r="K66">
+        <v>-1</v>
+      </c>
+      <c r="L66">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67">
         <v>62</v>
       </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64">
-        <v>-1</v>
-      </c>
-      <c r="K64">
-        <v>-1</v>
-      </c>
-      <c r="L64">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>-1</v>
+      </c>
+      <c r="K67">
+        <v>-1</v>
+      </c>
+      <c r="L67">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
@@ -3284,7 +3383,48 @@
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3293,8 +3433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7831BB-F7C3-7546-89C2-6E8E0330469B}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3310,19 +3451,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -3334,7 +3475,7 @@
         <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3342,15 +3483,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2">
@@ -3380,15 +3521,15 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
+        <v>77</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3">
@@ -3418,15 +3559,15 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
+        <v>94</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
         <v>0</v>
       </c>
       <c r="F4">
@@ -3456,16 +3597,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-0.25</v>
       </c>
       <c r="F5">
         <v>35</v>
@@ -3494,16 +3635,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-0.25</v>
       </c>
       <c r="F6">
         <v>35</v>
@@ -3532,15 +3673,15 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
+        <v>71</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
         <v>0</v>
       </c>
       <c r="F7">
@@ -3570,15 +3711,15 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8">
@@ -3608,15 +3749,15 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
+        <v>71</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9">
@@ -3646,15 +3787,15 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
+        <v>72</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10">
@@ -3684,15 +3825,15 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
+        <v>72</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
         <v>0</v>
       </c>
       <c r="F11">
@@ -3722,15 +3863,15 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
+        <v>72</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12">
@@ -3760,15 +3901,15 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
+        <v>94</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13">

--- a/kawa/config_tlm.xlsx
+++ b/kawa/config_tlm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/kawa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D39AAC-BA65-2649-9D27-3A3637A4D9C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9E47B2-419C-C74E-A506-5336CC355BD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="680" windowWidth="25580" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="5480" yWindow="460" windowWidth="25580" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -723,8 +723,8 @@
   <dimension ref="A1:L112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1266,10 +1266,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1304,10 +1304,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1342,7 +1342,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1380,7 +1380,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1418,7 +1418,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1456,7 +1456,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1494,7 +1494,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1532,7 +1532,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1570,7 +1570,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1608,7 +1608,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1646,10 +1646,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1684,10 +1684,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
         <v>99</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
         <v>95</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
         <v>56</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
         <v>96</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
         <v>97</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
         <v>78</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
         <v>79</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
         <v>80</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
         <v>81</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
         <v>82</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
         <v>83</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
         <v>84</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
         <v>85</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
         <v>86</v>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
         <v>87</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
         <v>88</v>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
         <v>89</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
         <v>90</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
         <v>91</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
         <v>92</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
         <v>93</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
         <v>100</v>
@@ -3125,7 +3125,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
         <v>101</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
         <v>102</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
         <v>103</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
         <v>104</v>

--- a/kawa/config_tlm.xlsx
+++ b/kawa/config_tlm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/kawa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9E47B2-419C-C74E-A506-5336CC355BD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7655865F-E1C0-0F43-84FD-7A30FA4AE859}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5480" yWindow="460" windowWidth="25580" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
@@ -213,30 +213,9 @@
     <t>binary</t>
   </si>
   <si>
-    <t>v_x</t>
-  </si>
-  <si>
-    <t>v_y</t>
-  </si>
-  <si>
-    <t>v_z</t>
-  </si>
-  <si>
-    <t>EA1</t>
-  </si>
-  <si>
-    <t>EA2</t>
-  </si>
-  <si>
-    <t>EA3</t>
-  </si>
-  <si>
     <t>EA</t>
   </si>
   <si>
-    <t>velocity</t>
-  </si>
-  <si>
     <t>ec</t>
   </si>
   <si>
@@ -358,6 +337,27 @@
   </si>
   <si>
     <t>cjc</t>
+  </si>
+  <si>
+    <t>PDU inhibit 1</t>
+  </si>
+  <si>
+    <t>PDU inhibit 2</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Pitch</t>
+  </si>
+  <si>
+    <t>Yaw</t>
+  </si>
+  <si>
+    <t>disk space</t>
   </si>
 </sst>
 </file>
@@ -723,8 +723,8 @@
   <dimension ref="A1:L112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,10 +772,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -810,10 +810,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -848,10 +848,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -1307,7 +1307,7 @@
         <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -2064,10 +2064,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -2102,10 +2102,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2140,10 +2140,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2178,19 +2178,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>59</v>
-      </c>
-      <c r="C39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>56</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2216,10 +2216,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -2254,10 +2254,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2289,13 +2289,13 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -2327,13 +2327,13 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2365,13 +2365,13 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2403,22 +2403,22 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="D45" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2441,22 +2441,22 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="D46" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2479,22 +2479,22 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D47" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2517,22 +2517,22 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D48" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E48" s="2">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2555,22 +2555,22 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D49" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E49" s="2">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2593,22 +2593,22 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D50" s="2">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="E50" s="2">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2631,22 +2631,22 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D51" s="2">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2669,22 +2669,22 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52">
         <v>61</v>
-      </c>
-      <c r="B52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" s="2">
-        <v>32</v>
-      </c>
-      <c r="E52" s="2">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>28</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2707,22 +2707,22 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D53" s="2">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="E53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2745,22 +2745,22 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D54" s="2">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="E54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2783,22 +2783,22 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D55" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E55" s="2">
         <v>1</v>
       </c>
       <c r="F55">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2821,22 +2821,22 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D56" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2859,22 +2859,22 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D57" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2897,22 +2897,22 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D58" s="2">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="E58" s="2">
         <v>1</v>
       </c>
       <c r="F58">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2935,22 +2935,22 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D59" s="2">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2973,19 +2973,19 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="D60" s="2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>28</v>
@@ -3011,19 +3011,19 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C61" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="D61" s="2">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>28</v>
@@ -3049,19 +3049,19 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="D62" s="2">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="E62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>28</v>
@@ -3087,10 +3087,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C63" t="s">
         <v>58</v>
@@ -3125,10 +3125,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C64" t="s">
         <v>58</v>
@@ -3163,10 +3163,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s">
         <v>58</v>
@@ -3201,13 +3201,13 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C66" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="D66" s="2">
         <v>1</v>
@@ -3239,13 +3239,13 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C67" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D67" s="2">
         <v>1</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -3521,10 +3521,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -3559,10 +3559,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -3600,7 +3600,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2">
         <v>0.5</v>
@@ -3638,7 +3638,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2">
         <v>0.5</v>
@@ -3676,7 +3676,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -3714,7 +3714,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -3752,7 +3752,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -3790,7 +3790,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -3828,7 +3828,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -3866,7 +3866,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -3901,10 +3901,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>

--- a/kawa/config_tlm.xlsx
+++ b/kawa/config_tlm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/kawa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7655865F-E1C0-0F43-84FD-7A30FA4AE859}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985DD52D-EC19-FF40-B156-A4EEDF146AB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5480" yWindow="460" windowWidth="25580" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
@@ -723,8 +723,8 @@
   <dimension ref="A1:L112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G16">
         <v>1</v>

--- a/kawa/config_tlm.xlsx
+++ b/kawa/config_tlm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/kawa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985DD52D-EC19-FF40-B156-A4EEDF146AB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE454BA9-4E20-F74B-AB63-147F4CE45E7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="460" windowWidth="25580" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="5480" yWindow="460" windowWidth="25580" windowHeight="19140" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="110">
   <si>
     <t>No.</t>
   </si>
@@ -358,6 +358,12 @@
   </si>
   <si>
     <t>disk space</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
 </sst>
 </file>
@@ -722,9 +728,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE05D0F0-18B2-A045-A8BA-808A6B30C776}">
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2260,7 +2266,7 @@
         <v>57</v>
       </c>
       <c r="D41" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
@@ -2298,7 +2304,7 @@
         <v>57</v>
       </c>
       <c r="D42" s="2">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
@@ -2336,7 +2342,7 @@
         <v>57</v>
       </c>
       <c r="D43" s="2">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -3431,11 +3437,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7831BB-F7C3-7546-89C2-6E8E0330469B}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3934,6 +3940,44 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>-1</v>
+      </c>
+      <c r="K14">
+        <v>-1</v>
+      </c>
+      <c r="L14">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
